--- a/bom/PartsOrder.xlsx
+++ b/bom/PartsOrder.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mwg/code/EE Projects 2022-/ComputerBreakout/Design/7SegmentDesigns/7Seg-2Digit/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018A6D36-C5B5-684A-99BC-1AA32BD8FA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C273AC9-9C08-744F-9C4E-526C5C8BA947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="680" windowWidth="26480" windowHeight="17420" xr2:uid="{7C62EEA5-59C9-AF4A-87E9-63E817F36AD7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rev2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Desc</t>
   </si>
@@ -92,15 +92,15 @@
     <t>Carrier Board: Hex Digits 7-segment</t>
   </si>
   <si>
-    <t>Double Digit 7-segment Display</t>
-  </si>
-  <si>
     <t>820 resistors, 1206 3216 metric</t>
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/yageo/RC1206JR-07820RL/729342</t>
   </si>
   <si>
+    <t>J5</t>
+  </si>
+  <si>
     <t>Digikey</t>
   </si>
   <si>
@@ -137,9 +137,6 @@
     <t>J1</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/kingbright/DC56-11GWA/3084377?s=N4IgTCBcDaICIGECsA2AtARgwcQOoEEQBdAXyA</t>
-  </si>
-  <si>
     <t>CAP CER 0.1UF 50V X7R 1206</t>
   </si>
   <si>
@@ -150,6 +147,69 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/yageo/CC1206KRX7R9BB104/302913</t>
+  </si>
+  <si>
+    <t>❌</t>
+  </si>
+  <si>
+    <t>Breadboard Breakout</t>
+  </si>
+  <si>
+    <t>Bright red 2x7seg (DC56-11SURKWA)</t>
+  </si>
+  <si>
+    <t>DC56-11SURKWA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kingbright/DC56-11SURKWA/4098431?s=N4IgTCBcDaICIGECsA2AtARgwZQKoCUBpAdQEEQBdAXyA</t>
+  </si>
+  <si>
+    <t>1k resistors, 1206 3216 metric</t>
+  </si>
+  <si>
+    <t>R1-R8 (alternate)</t>
+  </si>
+  <si>
+    <t>6x2 0.1" female receptacle</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPPC062LFBN-RC/810246</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/61300611121/4846833</t>
+  </si>
+  <si>
+    <t>6x1 CONN HEADER VERT 6POS 2.54MM</t>
+  </si>
+  <si>
+    <t>PPPC062LFBN-RC</t>
+  </si>
+  <si>
+    <t>CONN HDR 40POS 0.1 GOLD PCB 2x20 female</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PPPC202LFBN-RC/810259</t>
+  </si>
+  <si>
+    <t>PPPC202LFBN-RC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/PRPC020SFAN-RC/2775354?s=N4IgTCBcDaIAoCU4GEAMZUGUBiBBAcgLQLIgC6AvkA</t>
+  </si>
+  <si>
+    <t>PRPC020SFAN-RC</t>
+  </si>
+  <si>
+    <t>1x20 male pin headers 2.54mm</t>
+  </si>
+  <si>
+    <t>J6,J7</t>
+  </si>
+  <si>
+    <t>Breadboard Breakout (ULX3S)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/yageo/RC1206JR-071KL/729186</t>
   </si>
 </sst>
 </file>
@@ -587,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F5C68B-1182-F246-8D23-02BFEFD1FB78}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +725,7 @@
         <v/>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:Q6" si="0">IF(ISNUMBER(SEARCH(O$1,$J2)),1,"")</f>
+        <f t="shared" ref="O2:Q5" si="0">IF(ISNUMBER(SEARCH(O$1,$J2)),1,"")</f>
         <v/>
       </c>
       <c r="P2" t="str">
@@ -682,7 +742,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:Q10" si="1">IF(ISNUMBER(SEARCH(N$1,$J3)),1,"")</f>
+        <f t="shared" ref="N3:Q11" si="1">IF(ISNUMBER(SEARCH(N$1,$J3)),1,"")</f>
         <v/>
       </c>
       <c r="O3" t="str">
@@ -751,7 +811,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -760,41 +820,26 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <f>ROUNDUP(D6*$B$5,0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>3.33</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" ref="G6" si="2">E6*F6</f>
-        <v>9.99</v>
+        <v>6.66</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>41</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -822,7 +867,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>25</v>
@@ -849,7 +894,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -858,24 +903,23 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <f>ROUNDUP(D8*$B$5,0)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0.1</v>
       </c>
       <c r="G8" s="3">
         <f>E8*F8</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="8"/>
       <c r="N8">
@@ -897,78 +941,59 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E11" si="3">ROUNDUP(D9*$B$5,0)</f>
-        <v>3</v>
+        <f>ROUNDUP(D9*$B$5,0)</f>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>0.19</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" ref="G9:G10" si="4">E9*F9</f>
-        <v>0.57000000000000006</v>
+        <f>E9*F9</f>
+        <v>0.84000000000000008</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.33400000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="4"/>
-        <v>1.002</v>
+        <f t="shared" ref="G10:G11" si="3">E10*F10</f>
+        <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>36</v>
@@ -993,575 +1018,808 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.51</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>0.34</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" ref="G11" si="5">E11*F11</f>
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.37</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" ref="G12" si="4">E12*F12</f>
+        <v>0.74</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="I12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="N11">
-        <f t="shared" ref="N11:Q41" si="6">IF(ISNUMBER(SEARCH(N$1,$J11)),1,"")</f>
+      <c r="N12">
+        <f t="shared" ref="N12:Q45" si="5">IF(ISNUMBER(SEARCH(N$1,$J12)),1,"")</f>
         <v>1</v>
       </c>
-      <c r="O11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
       <c r="O12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="N16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>ROUNDUP(D17*$B$16,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>0.83</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" ref="G17:G22" si="6">E17*F17</f>
+        <v>3.32</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>0.34</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O14" t="str">
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>61300611121</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="N21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>ROUNDUP(D22*$B$21,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2.4</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="N16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q19" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q21" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <v>4.8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="14:17" x14ac:dyDescent="0.2">
-      <c r="N23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23" si="7">ROUNDUP(D23*$B$21,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>0.47</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23" si="8">E23*F23</f>
+        <v>1.88</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="14:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="14:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="14:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="14:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="14:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="14:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="14:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="14:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="14:17" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="N32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="14:17" x14ac:dyDescent="0.2">
       <c r="N41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="14:17" x14ac:dyDescent="0.2">
+      <c r="N45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1569,7 +1827,12 @@
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{1A3E09BD-6496-E249-908F-3F310AB191D0}"/>
     <hyperlink ref="J8" r:id="rId2" xr:uid="{0319D716-47EC-4547-A727-E76EF88AC059}"/>
-    <hyperlink ref="J11" r:id="rId3" xr:uid="{F840297B-B8E9-9449-96BD-B1DA2678F83F}"/>
+    <hyperlink ref="J12" r:id="rId3" xr:uid="{F840297B-B8E9-9449-96BD-B1DA2678F83F}"/>
+    <hyperlink ref="J6" r:id="rId4" xr:uid="{FEB30929-68BE-4F44-881A-8594B1EAC338}"/>
+    <hyperlink ref="J17" r:id="rId5" xr:uid="{C428719D-1F04-BC46-AD9C-55C05DF9B1C7}"/>
+    <hyperlink ref="J18" r:id="rId6" xr:uid="{E51BC069-7D42-3C43-B4B4-B6610D4E927E}"/>
+    <hyperlink ref="J22" r:id="rId7" xr:uid="{FD2E3B22-46DB-B045-908B-A7D23638FAA3}"/>
+    <hyperlink ref="J23" r:id="rId8" xr:uid="{3F30BBAC-5A5D-8742-9527-D9304F08507A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
